--- a/10_ResiduosSolidosUrbanos/P1013/P1013.xlsx
+++ b/10_ResiduosSolidosUrbanos/P1013/P1013.xlsx
@@ -206,7 +206,9 @@
     <t>Se contó el numero de rellenos sanitarios dentro de cada municipio. Luego se sumó el numero de rellenos sanitarios dentro de los municipios de cada ciudad</t>
   </si>
   <si>
-    <t>Los datos para este parametro se agregaron desde los individuos de una poblacion, por lo que se considera que los datos están completos y que si un municipio no tiene datos significa que ese municipio tiene cero unidades de las que está considerando el parámetro</t>
+    <t>La variable de integridad municipal para esta Dataset es binaria: 
+1 =  El municipio cuenta con informacion 
+0 = El municipio no cuenta con información</t>
   </si>
   <si>
     <t>Descripciones y notas relativas al Dataset</t>
@@ -4633,13 +4635,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>135</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5033,7 +5035,7 @@
         <v>1450</v>
       </c>
       <c r="E3" s="5">
-        <v>135</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5047,7 +5049,7 @@
         <v>1451</v>
       </c>
       <c r="E4" s="5">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5061,7 +5063,7 @@
         <v>1452</v>
       </c>
       <c r="E5" s="5">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5478,7 +5480,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5529,7 +5531,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5546,7 +5548,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5563,7 +5565,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5580,7 +5582,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5597,7 +5599,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5631,7 +5633,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -5648,7 +5650,7 @@
         <v>16</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0.2105263157894737</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5682,7 +5684,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -5716,7 +5718,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5733,7 +5735,7 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -5750,7 +5752,7 @@
         <v>3</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -5767,7 +5769,7 @@
         <v>3</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5784,7 +5786,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -5801,7 +5803,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -5818,7 +5820,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -5835,7 +5837,7 @@
         <v>2</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -5852,7 +5854,7 @@
         <v>2</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0.1538461538461539</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -5869,7 +5871,7 @@
         <v>3</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -5886,7 +5888,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -5903,7 +5905,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -5920,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -5954,7 +5956,7 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -5971,7 +5973,7 @@
         <v>2</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -5988,7 +5990,7 @@
         <v>1</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -6039,7 +6041,7 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -6056,7 +6058,7 @@
         <v>3</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -6073,7 +6075,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -6090,7 +6092,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -6107,7 +6109,7 @@
         <v>2</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -6124,7 +6126,7 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -6141,7 +6143,7 @@
         <v>1</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -6158,7 +6160,7 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -6175,7 +6177,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -6260,7 +6262,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -10173,7 +10175,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -10224,7 +10226,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -10241,7 +10243,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -10258,7 +10260,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -10275,7 +10277,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -10292,7 +10294,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -10309,7 +10311,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -10326,7 +10328,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -10360,7 +10362,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -10377,7 +10379,7 @@
         <v>16</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0.2105263157894737</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -10411,7 +10413,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -10445,7 +10447,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -10462,7 +10464,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -10479,7 +10481,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -10496,7 +10498,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -10513,7 +10515,7 @@
         <v>3</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -10530,7 +10532,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -10547,7 +10549,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -10564,7 +10566,7 @@
         <v>3</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -10581,7 +10583,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -10598,7 +10600,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -10615,7 +10617,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -10632,7 +10634,7 @@
         <v>1</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -10649,7 +10651,7 @@
         <v>2</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -10666,7 +10668,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -10683,7 +10685,7 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0.1538461538461539</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -10700,7 +10702,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -10717,7 +10719,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -10734,7 +10736,7 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -10751,7 +10753,7 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -10768,7 +10770,7 @@
         <v>3</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -10785,7 +10787,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -10802,7 +10804,7 @@
         <v>1</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -10819,7 +10821,7 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -10853,7 +10855,7 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -10870,7 +10872,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -10887,7 +10889,7 @@
         <v>1</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -10938,7 +10940,7 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -10955,7 +10957,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -10972,7 +10974,7 @@
         <v>3</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -10989,7 +10991,7 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -11006,7 +11008,7 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -11023,7 +11025,7 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -11040,7 +11042,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -11074,7 +11076,7 @@
         <v>2</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -11091,7 +11093,7 @@
         <v>1</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -11108,7 +11110,7 @@
         <v>1</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -11125,7 +11127,7 @@
         <v>2</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -11142,7 +11144,7 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -11176,7 +11178,7 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -11193,7 +11195,7 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -11210,7 +11212,7 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -11244,7 +11246,7 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -11261,7 +11263,7 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -11278,7 +11280,7 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -11295,7 +11297,7 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -11312,7 +11314,7 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -11329,7 +11331,7 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -11346,7 +11348,7 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -11363,7 +11365,7 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -11380,7 +11382,7 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -11397,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -11414,7 +11416,7 @@
         <v>0</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -11448,7 +11450,7 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -11465,7 +11467,7 @@
         <v>0</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -11499,7 +11501,7 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -11533,7 +11535,7 @@
         <v>0</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -11584,7 +11586,7 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -11601,7 +11603,7 @@
         <v>0</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -11635,7 +11637,7 @@
         <v>0</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -11652,7 +11654,7 @@
         <v>0</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -11669,7 +11671,7 @@
         <v>0</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -11686,7 +11688,7 @@
         <v>0</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -11737,7 +11739,7 @@
         <v>0</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -11788,7 +11790,7 @@
         <v>0</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -11822,7 +11824,7 @@
         <v>0</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -11839,7 +11841,7 @@
         <v>0</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -11856,7 +11858,7 @@
         <v>0</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -11873,7 +11875,7 @@
         <v>0</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -11890,7 +11892,7 @@
         <v>0</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -11907,7 +11909,7 @@
         <v>0</v>
       </c>
       <c r="E104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -11941,7 +11943,7 @@
         <v>0</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -11958,7 +11960,7 @@
         <v>0</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -11992,7 +11994,7 @@
         <v>0</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -12009,7 +12011,7 @@
         <v>0</v>
       </c>
       <c r="E110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -12026,7 +12028,7 @@
         <v>0</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -12043,7 +12045,7 @@
         <v>0</v>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -12060,7 +12062,7 @@
         <v>0</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -12094,7 +12096,7 @@
         <v>0</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -12111,7 +12113,7 @@
         <v>0</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -12145,7 +12147,7 @@
         <v>0</v>
       </c>
       <c r="E118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -12162,7 +12164,7 @@
         <v>0</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -12179,7 +12181,7 @@
         <v>0</v>
       </c>
       <c r="E120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -12247,7 +12249,7 @@
         <v>0</v>
       </c>
       <c r="E124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -12264,7 +12266,7 @@
         <v>0</v>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -12298,7 +12300,7 @@
         <v>0</v>
       </c>
       <c r="E127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -12383,7 +12385,7 @@
         <v>0</v>
       </c>
       <c r="E132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -12400,7 +12402,7 @@
         <v>0</v>
       </c>
       <c r="E133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -12451,7 +12453,7 @@
         <v>1</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
   </sheetData>
